--- a/Client2D/Bin/Excel/Character/Player.xlsx
+++ b/Client2D/Bin/Excel/Character/Player.xlsx
@@ -1,27 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\DirectX\trunk\Client2D\Bin\Excel\Character\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3F965E4-AEF8-4068-A848-902B4C39F16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE47F2AC-C0DA-4E80-8B33-1D4A447085B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,62 +27,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>타입</t>
   </si>
   <si>
-    <t>직업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Player</t>
   </si>
   <si>
-    <t>철수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>체력</t>
   </si>
   <si>
-    <t>전사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>이동속도</t>
   </si>
   <si>
     <t>공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -97,20 +81,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -123,7 +104,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -418,58 +399,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>300</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
       <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client2D/Bin/Excel/Character/Player.xlsx
+++ b/Client2D/Bin/Excel/Character/Player.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE47F2AC-C0DA-4E80-8B33-1D4A447085B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB5D35D1-14AA-45F4-B85C-A6F3E5476BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -429,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:2">

--- a/Client2D/Bin/Excel/Character/Player.xlsx
+++ b/Client2D/Bin/Excel/Character/Player.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB5D35D1-14AA-45F4-B85C-A6F3E5476BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE32B1C3-300C-4BD1-AAB3-861C13AB8ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -429,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:2">

--- a/Client2D/Bin/Excel/Character/Player.xlsx
+++ b/Client2D/Bin/Excel/Character/Player.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE32B1C3-300C-4BD1-AAB3-861C13AB8ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20933016-100A-4AE9-AF8F-395736DDE957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>타입</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>이동속도</t>
-  </si>
-  <si>
-    <t>공격력</t>
   </si>
 </sst>
 </file>
@@ -403,7 +400,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -429,16 +426,11 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
